--- a/public/documents/somethon.xlsx
+++ b/public/documents/somethon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <x:si>
     <x:t>enrollment</x:t>
   </x:si>
@@ -74,6 +74,9 @@
   </x:si>
   <x:si>
     <x:t>cl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ET023944</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -514,6 +517,58 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
